--- a/inl_LAB1/Book1.xlsx
+++ b/inl_LAB1/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\oneDrive\_Plugg\TDA416 Datastrukt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oskar\Documents\GitHub\TDA416\inl_LAB1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="0" windowWidth="2988" windowHeight="8484"/>
+    <workbookView xWindow="3345" yWindow="0" windowWidth="2985" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
-    <t>algo</t>
+    <t>algo1</t>
   </si>
   <si>
-    <t>ize</t>
+    <t>algo2</t>
+  </si>
+  <si>
+    <t>algo3</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>matematisk analys algo1</t>
   </si>
 </sst>
 </file>
@@ -127,28 +136,16 @@
             <c:v>alg1</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -243,28 +240,16 @@
             <c:v>alg2</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -359,28 +344,16 @@
             <c:v>alg3</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
+              <a:miter lim="800000"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -462,6 +435,318 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.13300000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MA alg1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0240000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1920000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65536000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2428800000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.943040000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>335.54432000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2684.3545600000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21474.836480000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>171798.69184000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1374389.5347200001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10995116.277760001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>MA alg2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.2800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1200000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0480000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1920000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32768000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3107200000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2428800000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.971520000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.886080000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>335.54432000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1342.1772800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>MA alg3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.6000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2200000000000003E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4000000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5600000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1200000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0240000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0480000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0960000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1920000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16384000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,25 +761,103 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="317381616"/>
-        <c:axId val="317380832"/>
+        <c:axId val="313466552"/>
+        <c:axId val="313466944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="317381616"/>
+        <c:axId val="313466552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>storlek</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> på</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> fält</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -502,6 +865,7 @@
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -525,7 +889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317380832"/>
+        <c:crossAx val="313466944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -533,10 +897,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317380832"/>
+        <c:axId val="313466944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="350"/>
+          <c:max val="600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -547,6 +911,7 @@
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="32000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -554,14 +919,81 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Exekveringstid</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:tailEnd type="none" w="med" len="lg"/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -585,7 +1017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317381616"/>
+        <c:crossAx val="313466552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -707,7 +1139,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -718,7 +1150,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -731,7 +1163,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -739,6 +1171,7 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -764,7 +1197,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -808,39 +1241,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="flat" cmpd="dbl" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
+        <a:miter lim="800000"/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -848,7 +1291,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -856,19 +1299,23 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -893,15 +1340,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -911,13 +1356,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
@@ -938,14 +1383,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -957,14 +1401,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -975,14 +1418,28 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -990,7 +1447,87 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:alpha val="32000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -998,10 +1535,12 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1009,111 +1548,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1123,11 +1564,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1139,12 +1580,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
+      <a:ln w="12700" cap="rnd"/>
     </cs:spPr>
   </cs:trendline>
   <cs:trendlineLabel>
@@ -1164,7 +1600,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1173,8 +1609,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1190,6 +1626,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:tailEnd type="none" w="med" len="lg"/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1199,12 +1647,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1213,16 +1655,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>329044</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1507,20 +1949,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:L10"/>
+  <dimension ref="A7:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
@@ -1556,7 +1999,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,9 +2037,9 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
         <v>7.0000000000000001E-3</v>
@@ -1632,9 +2075,9 @@
         <v>271.68700000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
         <v>1E-3</v>
@@ -1668,6 +2111,153 @@
       </c>
       <c r="L10" s="2">
         <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f>B7^3*0.00002</f>
+        <v>1.0240000000000001E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:L11" si="0">C7^3*0.00002</f>
+        <v>8.1920000000000007E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.65536000000000005</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.2428800000000004</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>41.943040000000003</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>335.54432000000003</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2684.3545600000002</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>21474.836480000002</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>171798.69184000001</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>1374389.5347200001</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>10995116.277760001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <f>B7^2*0.00002</f>
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:L13" si="1">C7^2*0.00002</f>
+        <v>5.1200000000000004E-3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>2.0480000000000002E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>8.1920000000000007E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.32768000000000003</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.3107200000000001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>5.2428800000000004</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>20.971520000000002</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>83.886080000000007</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>335.54432000000003</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>1342.1772800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <f>B7^1*0.00002</f>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>7.2200000000000003E-9</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="C13:L13" si="2">D7^1*0.00002</f>
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>1.2800000000000001E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>2.5600000000000002E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>5.1200000000000004E-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1.0240000000000001E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>2.0480000000000002E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>4.0960000000000003E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>8.1920000000000007E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0.16384000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/inl_LAB1/Book1.xlsx
+++ b/inl_LAB1/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="0" windowWidth="2985" windowHeight="8490"/>
+    <workbookView xWindow="4455" yWindow="0" windowWidth="2985" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,13 +220,13 @@
                   <c:v>786.33299999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>999</c:v>
+                  <c:v>2358.9989999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>999</c:v>
+                  <c:v>7076.9969999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>999</c:v>
+                  <c:v>21230.990999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,37 +508,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.0240000000000001E-2</c:v>
+                  <c:v>5.1200000000000009E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.1920000000000007E-2</c:v>
+                  <c:v>4.0960000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65536000000000005</c:v>
+                  <c:v>3.2768000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2428800000000004</c:v>
+                  <c:v>0.26214400000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.943040000000003</c:v>
+                  <c:v>2.0971520000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>335.54432000000003</c:v>
+                  <c:v>16.777216000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2684.3545600000002</c:v>
+                  <c:v>134.21772800000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21474.836480000002</c:v>
+                  <c:v>1073.7418240000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>171798.69184000001</c:v>
+                  <c:v>8589.9345920000014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1374389.5347200001</c:v>
+                  <c:v>68719.476736000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10995116.277760001</c:v>
+                  <c:v>549755.81388800009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,37 +612,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.2800000000000001E-3</c:v>
+                  <c:v>2.1760000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1200000000000004E-3</c:v>
+                  <c:v>8.7040000000000012E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0480000000000002E-2</c:v>
+                  <c:v>3.4816000000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1920000000000007E-2</c:v>
+                  <c:v>1.3926400000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32768000000000003</c:v>
+                  <c:v>5.5705600000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3107200000000001</c:v>
+                  <c:v>0.22282240000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.2428800000000004</c:v>
+                  <c:v>0.89128960000000013</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.971520000000002</c:v>
+                  <c:v>3.5651584000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83.886080000000007</c:v>
+                  <c:v>14.260633600000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>335.54432000000003</c:v>
+                  <c:v>57.042534400000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1342.1772800000001</c:v>
+                  <c:v>228.17013760000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,11 +762,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="313466552"/>
-        <c:axId val="313466944"/>
+        <c:axId val="364021512"/>
+        <c:axId val="364018768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="313466552"/>
+        <c:axId val="364021512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313466944"/>
+        <c:crossAx val="364018768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -897,7 +897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313466944"/>
+        <c:axId val="364018768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -1017,7 +1017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313466552"/>
+        <c:crossAx val="364021512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1661,8 +1661,8 @@
       <xdr:rowOff>42256</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>329044</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>147205</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>25977</xdr:rowOff>
     </xdr:to>
@@ -1949,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:L13"/>
+  <dimension ref="A5:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,6 +1961,14 @@
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>0.17</v>
+      </c>
+    </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
@@ -2028,13 +2036,16 @@
         <v>786.33299999999997</v>
       </c>
       <c r="J8" s="2">
-        <v>999</v>
+        <f>I8*3</f>
+        <v>2358.9989999999998</v>
       </c>
       <c r="K8" s="2">
-        <v>999</v>
+        <f t="shared" ref="K8:L8" si="0">J8*3</f>
+        <v>7076.9969999999994</v>
       </c>
       <c r="L8" s="2">
-        <v>999</v>
+        <f t="shared" si="0"/>
+        <v>21230.990999999998</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2118,48 +2129,48 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <f>B7^3*0.00002</f>
-        <v>1.0240000000000001E-2</v>
+        <f>B7^3*0.00002*$C5</f>
+        <v>5.1200000000000009E-4</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:L11" si="0">C7^3*0.00002</f>
-        <v>8.1920000000000007E-2</v>
+        <f t="shared" ref="C11:L11" si="1">C7^3*0.00002*$C5</f>
+        <v>4.0960000000000007E-3</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.65536000000000005</v>
+        <f t="shared" si="1"/>
+        <v>3.2768000000000005E-2</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>5.2428800000000004</v>
+        <f t="shared" si="1"/>
+        <v>0.26214400000000004</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>41.943040000000003</v>
+        <f t="shared" si="1"/>
+        <v>2.0971520000000003</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>335.54432000000003</v>
+        <f t="shared" si="1"/>
+        <v>16.777216000000003</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>2684.3545600000002</v>
+        <f t="shared" si="1"/>
+        <v>134.21772800000002</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>21474.836480000002</v>
+        <f t="shared" si="1"/>
+        <v>1073.7418240000002</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
-        <v>171798.69184000001</v>
+        <f t="shared" si="1"/>
+        <v>8589.9345920000014</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
-        <v>1374389.5347200001</v>
+        <f t="shared" si="1"/>
+        <v>68719.476736000011</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
-        <v>10995116.277760001</v>
+        <f t="shared" si="1"/>
+        <v>549755.81388800009</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2167,48 +2178,48 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <f>B7^2*0.00002</f>
-        <v>1.2800000000000001E-3</v>
+        <f>B7^2*0.00002*$D5</f>
+        <v>2.1760000000000003E-4</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:L13" si="1">C7^2*0.00002</f>
-        <v>5.1200000000000004E-3</v>
+        <f t="shared" ref="C12:L12" si="2">C7^2*0.00002*$D5</f>
+        <v>8.7040000000000012E-4</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
-        <v>2.0480000000000002E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4816000000000005E-3</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>8.1920000000000007E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.3926400000000002E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>0.32768000000000003</v>
+        <f t="shared" si="2"/>
+        <v>5.5705600000000008E-2</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
-        <v>1.3107200000000001</v>
+        <f t="shared" si="2"/>
+        <v>0.22282240000000003</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
-        <v>5.2428800000000004</v>
+        <f t="shared" si="2"/>
+        <v>0.89128960000000013</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>20.971520000000002</v>
+        <f t="shared" si="2"/>
+        <v>3.5651584000000005</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>83.886080000000007</v>
+        <f t="shared" si="2"/>
+        <v>14.260633600000002</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
-        <v>335.54432000000003</v>
+        <f t="shared" si="2"/>
+        <v>57.042534400000008</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
-        <v>1342.1772800000001</v>
+        <f t="shared" si="2"/>
+        <v>228.17013760000003</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2220,43 +2231,43 @@
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C12:L13" si="3">C8^2*0.00002</f>
         <v>7.2200000000000003E-9</v>
       </c>
       <c r="D13">
-        <f t="shared" ref="C13:L13" si="2">D7^1*0.00002</f>
+        <f t="shared" ref="D13:L13" si="4">D7^1*0.00002</f>
         <v>6.4000000000000005E-4</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2800000000000001E-3</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5600000000000002E-3</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1200000000000004E-3</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0240000000000001E-2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0480000000000002E-2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.0960000000000003E-2</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.1920000000000007E-2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16384000000000001</v>
       </c>
     </row>
